--- a/Training Model Total/model-training/assets/R33 - Wed Feb 19 2020 00_00_00 GMT+0700 (Western Indonesia Time) - Fri Feb 28 2020 23_30_00 GMT+0700 (Western Indonesia Time).xlsx
+++ b/Training Model Total/model-training/assets/R33 - Wed Feb 19 2020 00_00_00 GMT+0700 (Western Indonesia Time) - Fri Feb 28 2020 23_30_00 GMT+0700 (Western Indonesia Time).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tobias\Project\Bu Faridah\Coding Program\Training Model Total\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tobias\Project\Bu Faridah\Coding Program\Training Model Total\model-training\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2C4D0F-EC24-4C8A-A478-7B63A4542BED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55381AC-0C8A-48B6-ADFB-71157EF30E4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2919,13 +2919,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-1</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-1</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-1</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-1</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-1</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-1</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-1</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>55</v>
       </c>
       <c r="N36" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="O36" t="s">
         <v>51</v>
@@ -5166,7 +5166,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-1</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-1</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-1</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-1</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-1</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-1</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-2</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-1</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="72" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
@@ -8890,7 +8890,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="76" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="77" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -9380,7 +9380,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2</v>
       </c>
@@ -9478,7 +9478,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="81" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="84" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2</v>
       </c>
@@ -9870,7 +9870,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="85" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="86" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="88" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="89" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>0</v>
       </c>
@@ -10458,7 +10458,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="91" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="92" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="94" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="95" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="96" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -11046,7 +11046,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="97" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="98" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="100" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2</v>
       </c>
@@ -11438,7 +11438,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="101" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2</v>
       </c>
@@ -11536,7 +11536,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="102" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>0</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="103" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2</v>
       </c>
@@ -11732,7 +11732,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="104" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2</v>
       </c>
@@ -11830,7 +11830,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="105" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -11928,7 +11928,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="106" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="107" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="108" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -12222,7 +12222,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="109" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
@@ -12320,7 +12320,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="110" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="111" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2</v>
       </c>
@@ -12516,7 +12516,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="112" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="113" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1</v>
       </c>
@@ -12712,7 +12712,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="114" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -12810,7 +12810,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="115" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
@@ -12908,7 +12908,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="116" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1</v>
       </c>
@@ -13006,7 +13006,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="117" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
@@ -13104,7 +13104,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="118" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -13202,7 +13202,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="119" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2</v>
       </c>
@@ -13300,7 +13300,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="120" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2</v>
       </c>
@@ -13398,7 +13398,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="121" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -13496,7 +13496,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="122" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
@@ -13594,7 +13594,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="123" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>0</v>
       </c>
@@ -13692,7 +13692,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="124" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>0</v>
       </c>
@@ -13790,7 +13790,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="125" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>0</v>
       </c>
@@ -13888,7 +13888,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="126" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -13986,7 +13986,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
@@ -14084,7 +14084,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="128" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -14182,7 +14182,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
@@ -14280,7 +14280,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>0</v>
       </c>
@@ -14378,7 +14378,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>-1</v>
       </c>
@@ -14476,7 +14476,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>-1</v>
       </c>
@@ -14574,7 +14574,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="133" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -14672,7 +14672,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="134" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
@@ -14770,7 +14770,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="135" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>-1</v>
       </c>
@@ -14868,7 +14868,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="136" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>-1</v>
       </c>
@@ -14966,7 +14966,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="137" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>0</v>
       </c>
@@ -15064,7 +15064,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="138" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>0</v>
       </c>
@@ -15162,7 +15162,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="139" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>0</v>
       </c>
@@ -15260,7 +15260,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="140" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2</v>
       </c>
@@ -15358,7 +15358,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="141" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1</v>
       </c>
@@ -15456,7 +15456,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="142" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1</v>
       </c>
@@ -15554,7 +15554,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="143" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
@@ -15652,7 +15652,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2</v>
       </c>
@@ -15750,7 +15750,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="145" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
@@ -15848,7 +15848,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="146" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>0</v>
       </c>
@@ -15946,7 +15946,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="147" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
@@ -16044,7 +16044,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="148" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>0</v>
       </c>
@@ -16142,7 +16142,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="149" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2</v>
       </c>
@@ -16240,7 +16240,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="150" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2</v>
       </c>
@@ -16338,7 +16338,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="151" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2</v>
       </c>
@@ -16436,7 +16436,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="152" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1</v>
       </c>
@@ -16534,7 +16534,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="153" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2</v>
       </c>
@@ -16632,7 +16632,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="154" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1</v>
       </c>
@@ -16730,7 +16730,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="155" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1</v>
       </c>
@@ -16828,7 +16828,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="156" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1</v>
       </c>
@@ -16926,7 +16926,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="157" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1</v>
       </c>
@@ -17024,7 +17024,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="158" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2</v>
       </c>
@@ -17122,7 +17122,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="159" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1</v>
       </c>
@@ -17220,7 +17220,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="160" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="161" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2</v>
       </c>
@@ -17416,7 +17416,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="162" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>0</v>
       </c>
@@ -17514,7 +17514,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="163" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1</v>
       </c>
@@ -17612,7 +17612,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="164" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>0</v>
       </c>
@@ -17710,7 +17710,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="165" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1</v>
       </c>
@@ -17808,7 +17808,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="166" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1</v>
       </c>
@@ -17906,7 +17906,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="167" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1</v>
       </c>
@@ -18004,7 +18004,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="168" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2</v>
       </c>
@@ -18102,7 +18102,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="169" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1</v>
       </c>
@@ -18200,7 +18200,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="170" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2</v>
       </c>
@@ -18298,7 +18298,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="171" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2</v>
       </c>
@@ -18396,7 +18396,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="172" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1</v>
       </c>
@@ -18494,7 +18494,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="173" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2</v>
       </c>
@@ -18592,7 +18592,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="174" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1</v>
       </c>
@@ -18690,7 +18690,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="175" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1</v>
       </c>
@@ -18788,7 +18788,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="176" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>-1</v>
       </c>
@@ -18886,7 +18886,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="177" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>-1</v>
       </c>
@@ -18984,7 +18984,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="178" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1</v>
       </c>
@@ -19082,7 +19082,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="179" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>-2</v>
       </c>
@@ -19180,7 +19180,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="180" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2</v>
       </c>
@@ -19278,7 +19278,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="181" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>-1</v>
       </c>
@@ -19376,7 +19376,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="182" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>0</v>
       </c>
@@ -19474,7 +19474,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="183" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>-1</v>
       </c>
@@ -19572,7 +19572,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="184" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>-1</v>
       </c>
@@ -19670,7 +19670,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="185" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>0</v>
       </c>
@@ -19768,7 +19768,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="186" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>-1</v>
       </c>
@@ -19866,7 +19866,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="187" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>0</v>
       </c>
@@ -19964,7 +19964,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="188" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>-1</v>
       </c>
@@ -20062,7 +20062,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="189" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>0</v>
       </c>
@@ -20160,7 +20160,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="190" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>0</v>
       </c>
@@ -20258,7 +20258,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="191" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>0</v>
       </c>
@@ -20356,7 +20356,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="192" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>0</v>
       </c>
@@ -20454,7 +20454,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="193" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>0</v>
       </c>
@@ -20552,7 +20552,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="194" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>0</v>
       </c>
@@ -20650,7 +20650,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="195" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>0</v>
       </c>
@@ -20748,7 +20748,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="196" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>0</v>
       </c>
@@ -20846,7 +20846,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="197" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>-1</v>
       </c>
@@ -20944,7 +20944,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="198" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>0</v>
       </c>
@@ -21042,7 +21042,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="199" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>0</v>
       </c>
@@ -21140,7 +21140,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="200" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>-1</v>
       </c>
@@ -21238,7 +21238,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="201" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
@@ -21336,7 +21336,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="202" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>0</v>
       </c>
@@ -21434,7 +21434,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="203" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>-1</v>
       </c>
@@ -21532,7 +21532,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="204" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>0</v>
       </c>
@@ -21630,7 +21630,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="205" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>0</v>
       </c>
@@ -21728,7 +21728,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="206" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>0</v>
       </c>
@@ -21826,7 +21826,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="207" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1</v>
       </c>
@@ -21924,7 +21924,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="208" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>0</v>
       </c>
@@ -22022,7 +22022,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="209" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>-1</v>
       </c>
@@ -22120,7 +22120,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="210" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>0</v>
       </c>
@@ -22218,7 +22218,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="211" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>0</v>
       </c>
@@ -22316,7 +22316,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="212" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>0</v>
       </c>
@@ -22414,7 +22414,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="213" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>0</v>
       </c>
@@ -22512,7 +22512,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="214" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>0</v>
       </c>
@@ -22610,7 +22610,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="215" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>0</v>
       </c>
@@ -22708,7 +22708,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="216" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>0</v>
       </c>
@@ -22806,7 +22806,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="217" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>0</v>
       </c>
@@ -22904,7 +22904,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="218" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>0</v>
       </c>
@@ -23002,7 +23002,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="219" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>0</v>
       </c>
@@ -23100,7 +23100,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="220" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>0</v>
       </c>
@@ -23198,7 +23198,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="221" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>0</v>
       </c>
@@ -23296,7 +23296,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="222" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>-1</v>
       </c>
@@ -23394,7 +23394,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="223" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>0</v>
       </c>
@@ -23492,7 +23492,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="224" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>0</v>
       </c>
@@ -23590,7 +23590,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="225" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1</v>
       </c>
@@ -23688,7 +23688,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="226" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>-1</v>
       </c>
@@ -23786,7 +23786,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="227" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>0</v>
       </c>
@@ -23884,7 +23884,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="228" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1</v>
       </c>
@@ -23982,7 +23982,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="229" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>0</v>
       </c>
@@ -24080,7 +24080,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="230" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>0</v>
       </c>
@@ -24178,7 +24178,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="231" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>0</v>
       </c>
@@ -24276,7 +24276,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="232" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>0</v>
       </c>
@@ -24374,7 +24374,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="233" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>0</v>
       </c>
@@ -24472,7 +24472,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="234" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1</v>
       </c>
@@ -24570,7 +24570,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="235" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>-1</v>
       </c>
@@ -24668,7 +24668,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="236" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1</v>
       </c>
@@ -24766,7 +24766,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="237" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>-1</v>
       </c>
@@ -24864,7 +24864,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="238" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>0</v>
       </c>
@@ -24962,7 +24962,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="239" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>0</v>
       </c>
@@ -25060,7 +25060,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="240" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>0</v>
       </c>
@@ -25158,7 +25158,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="241" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>0</v>
       </c>
@@ -25256,7 +25256,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="242" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>0</v>
       </c>
@@ -25354,7 +25354,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="243" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>0</v>
       </c>
@@ -25452,7 +25452,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="244" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>0</v>
       </c>
@@ -25550,7 +25550,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="245" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>0</v>
       </c>
@@ -25648,7 +25648,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="246" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>0</v>
       </c>
@@ -25746,7 +25746,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="247" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1</v>
       </c>
@@ -25844,7 +25844,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="248" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>2</v>
       </c>
@@ -25942,7 +25942,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="249" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1</v>
       </c>
@@ -26040,7 +26040,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="250" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1</v>
       </c>
@@ -26138,7 +26138,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="251" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>0</v>
       </c>
@@ -26236,7 +26236,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="252" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>0</v>
       </c>
@@ -26334,7 +26334,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="253" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>2</v>
       </c>
@@ -26432,7 +26432,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="254" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1</v>
       </c>
@@ -26530,7 +26530,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="255" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1</v>
       </c>
@@ -26628,7 +26628,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="256" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>2</v>
       </c>
@@ -26726,7 +26726,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="257" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>2</v>
       </c>
@@ -26824,7 +26824,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="258" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1</v>
       </c>
@@ -26922,7 +26922,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="259" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>0</v>
       </c>
@@ -27020,7 +27020,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="260" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2</v>
       </c>
@@ -27118,7 +27118,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="261" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1</v>
       </c>
@@ -27216,7 +27216,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="262" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1</v>
       </c>
@@ -27314,7 +27314,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="263" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1</v>
       </c>
@@ -27412,7 +27412,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="264" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1</v>
       </c>
@@ -27510,7 +27510,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="265" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1</v>
       </c>
@@ -27608,7 +27608,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="266" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>0</v>
       </c>
@@ -27706,7 +27706,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="267" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>0</v>
       </c>
@@ -27806,8 +27806,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:AS35 A1:S1 U1:AS1 A38:AS267 A36:I36 K36:R36 A37:I37 K37:AS37 T36:AS36" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:AS35 A1:S1 U1:AS1 A38:AS267 A36:I36 K36:M36 A37:I37 K37:AS37 T36:AS36 O36:R36" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>